--- a/vendas.xlsx
+++ b/vendas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Colab Notebooks\Machine_Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD456D9-6D6A-46E7-BA41-708B54C58C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1667216-5ED5-42E8-B482-602F83B1475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19620" windowHeight="9825" xr2:uid="{C72F652A-8B27-41C8-A129-D804720BCEB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
+    <sheet name="Solução" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>n</t>
   </si>
@@ -88,10 +89,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,7 +138,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dados!$D$1</c:f>
+              <c:f>Solução!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -167,7 +171,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Dados!$B$2:$B$21</c:f>
+              <c:f>Solução!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -236,7 +240,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Dados!$D$2:$D$21</c:f>
+              <c:f>Solução!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
@@ -306,7 +310,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7EBE-4B4F-9B2C-DE2214689915}"/>
+              <c16:uniqueId val="{00000000-2D51-4874-A8F4-4C0AA5287D9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -315,7 +319,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dados!$E$1</c:f>
+              <c:f>Solução!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -358,11 +362,47 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.5360374439887029"/>
+                  <c:y val="5.5555555555555552E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Dados!$B$2:$B$21</c:f>
+              <c:f>Solução!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -431,7 +471,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Dados!$E$2:$E$21</c:f>
+              <c:f>Solução!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -501,7 +541,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7EBE-4B4F-9B2C-DE2214689915}"/>
+              <c16:uniqueId val="{00000002-2D51-4874-A8F4-4C0AA5287D9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -524,7 +564,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dados!$C$1</c:f>
+              <c:f>Solução!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -557,7 +597,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Dados!$B$2:$B$21</c:f>
+              <c:f>Solução!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -626,7 +666,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Dados!$C$2:$C$21</c:f>
+              <c:f>Solução!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -696,7 +736,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7EBE-4B4F-9B2C-DE2214689915}"/>
+              <c16:uniqueId val="{00000003-2D51-4874-A8F4-4C0AA5287D9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -901,6 +941,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="634367896"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1559,14 +1600,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E8B547-4462-7D38-9CB4-493CE0871F4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88427EFC-1F30-4CAA-9A13-9E78806AB82A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1880,10 +1923,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530AF903-5D8A-4FC7-A7D8-0FB2C68F00DF}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>149</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>143</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>126</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>177</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>168</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>157</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>168</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>169</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>190</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>226</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>214</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>176</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>149</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>223</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>199</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>113</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6570</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FF46FE-E01E-4835-BF2E-EF2AD74A73FE}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,10 +2220,10 @@
         <f>IF(D2&gt;0.5,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H2" t="b">
+      <c r="H2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K2" t="b">
+      <c r="K2" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1953,10 +2245,10 @@
         <f t="shared" ref="E3:E21" si="1">IF(D3&gt;0.5,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2282,10 +2574,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" t="b">
+      <c r="H20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K20" t="b">
+      <c r="K20" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2307,10 +2599,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
